--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efna1-Epha3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efna1-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.265623769396</v>
+        <v>23.60223533333333</v>
       </c>
       <c r="H2">
-        <v>23.265623769396</v>
+        <v>70.80670599999999</v>
       </c>
       <c r="I2">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021215</v>
       </c>
       <c r="J2">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021214</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>58.434756626801</v>
+        <v>1.106217</v>
       </c>
       <c r="N2">
-        <v>58.434756626801</v>
+        <v>3.318651</v>
       </c>
       <c r="O2">
-        <v>0.9922242702010956</v>
+        <v>0.01813136626967656</v>
       </c>
       <c r="P2">
-        <v>0.9922242702010956</v>
+        <v>0.01813136626967656</v>
       </c>
       <c r="Q2">
-        <v>1359.521062735372</v>
+        <v>26.109193963734</v>
       </c>
       <c r="R2">
-        <v>1359.521062735372</v>
+        <v>234.982745673606</v>
       </c>
       <c r="S2">
-        <v>0.8763562646622135</v>
+        <v>0.01600043472411981</v>
       </c>
       <c r="T2">
-        <v>0.8763562646622135</v>
+        <v>0.01600043472411981</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.265623769396</v>
+        <v>23.60223533333333</v>
       </c>
       <c r="H3">
-        <v>23.265623769396</v>
+        <v>70.80670599999999</v>
       </c>
       <c r="I3">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021215</v>
       </c>
       <c r="J3">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021214</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.457933646697285</v>
+        <v>59.24481466666666</v>
       </c>
       <c r="N3">
-        <v>0.457933646697285</v>
+        <v>177.734444</v>
       </c>
       <c r="O3">
-        <v>0.00777572979890435</v>
+        <v>0.971047664518299</v>
       </c>
       <c r="P3">
-        <v>0.00777572979890435</v>
+        <v>0.971047664518299</v>
       </c>
       <c r="Q3">
-        <v>10.65411193540654</v>
+        <v>1398.310058042385</v>
       </c>
       <c r="R3">
-        <v>10.65411193540654</v>
+        <v>12584.79052238146</v>
       </c>
       <c r="S3">
-        <v>0.00686771098655893</v>
+        <v>0.8569229995711294</v>
       </c>
       <c r="T3">
-        <v>0.00686771098655893</v>
+        <v>0.8569229995711293</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.57126938261837</v>
+        <v>23.60223533333333</v>
       </c>
       <c r="H4">
-        <v>2.57126938261837</v>
+        <v>70.80670599999999</v>
       </c>
       <c r="I4">
-        <v>0.09761211601674237</v>
+        <v>0.8824726436021215</v>
       </c>
       <c r="J4">
-        <v>0.09761211601674237</v>
+        <v>0.8824726436021214</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.434756626801</v>
+        <v>0.6602006666666667</v>
       </c>
       <c r="N4">
-        <v>58.434756626801</v>
+        <v>1.980602</v>
       </c>
       <c r="O4">
-        <v>0.9922242702010956</v>
+        <v>0.01082096921202439</v>
       </c>
       <c r="P4">
-        <v>0.9922242702010956</v>
+        <v>0.01082096921202439</v>
       </c>
       <c r="Q4">
-        <v>150.2515005952493</v>
+        <v>15.58221150189022</v>
       </c>
       <c r="R4">
-        <v>150.2515005952493</v>
+        <v>140.239903517012</v>
       </c>
       <c r="S4">
-        <v>0.09685311057749688</v>
+        <v>0.009549209306872326</v>
       </c>
       <c r="T4">
-        <v>0.09685311057749688</v>
+        <v>0.009549209306872324</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.57126938261837</v>
+        <v>2.633202</v>
       </c>
       <c r="H5">
-        <v>2.57126938261837</v>
+        <v>7.899606</v>
       </c>
       <c r="I5">
-        <v>0.09761211601674237</v>
+        <v>0.09845375648791208</v>
       </c>
       <c r="J5">
-        <v>0.09761211601674237</v>
+        <v>0.09845375648791205</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.457933646697285</v>
+        <v>1.106217</v>
       </c>
       <c r="N5">
-        <v>0.457933646697285</v>
+        <v>3.318651</v>
       </c>
       <c r="O5">
-        <v>0.00777572979890435</v>
+        <v>0.01813136626967656</v>
       </c>
       <c r="P5">
-        <v>0.00777572979890435</v>
+        <v>0.01813136626967656</v>
       </c>
       <c r="Q5">
-        <v>1.177470765023507</v>
+        <v>2.912892816834</v>
       </c>
       <c r="R5">
-        <v>1.177470765023507</v>
+        <v>26.216035351506</v>
       </c>
       <c r="S5">
-        <v>0.0007590054392454923</v>
+        <v>0.001785101119507879</v>
       </c>
       <c r="T5">
-        <v>0.0007590054392454923</v>
+        <v>0.001785101119507879</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.504809984278132</v>
+        <v>2.633202</v>
       </c>
       <c r="H6">
-        <v>0.504809984278132</v>
+        <v>7.899606</v>
       </c>
       <c r="I6">
-        <v>0.01916390833448524</v>
+        <v>0.09845375648791208</v>
       </c>
       <c r="J6">
-        <v>0.01916390833448524</v>
+        <v>0.09845375648791205</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.434756626801</v>
+        <v>59.24481466666666</v>
       </c>
       <c r="N6">
-        <v>58.434756626801</v>
+        <v>177.734444</v>
       </c>
       <c r="O6">
-        <v>0.9922242702010956</v>
+        <v>0.971047664518299</v>
       </c>
       <c r="P6">
-        <v>0.9922242702010956</v>
+        <v>0.971047664518299</v>
       </c>
       <c r="Q6">
-        <v>29.49844857407188</v>
+        <v>156.003564469896</v>
       </c>
       <c r="R6">
-        <v>29.49844857407188</v>
+        <v>1404.032080229064</v>
       </c>
       <c r="S6">
-        <v>0.01901489496138531</v>
+        <v>0.09560329030064035</v>
       </c>
       <c r="T6">
-        <v>0.01901489496138531</v>
+        <v>0.09560329030064033</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.504809984278132</v>
+        <v>2.633202</v>
       </c>
       <c r="H7">
-        <v>0.504809984278132</v>
+        <v>7.899606</v>
       </c>
       <c r="I7">
-        <v>0.01916390833448524</v>
+        <v>0.09845375648791208</v>
       </c>
       <c r="J7">
-        <v>0.01916390833448524</v>
+        <v>0.09845375648791205</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.457933646697285</v>
+        <v>0.6602006666666667</v>
       </c>
       <c r="N7">
-        <v>0.457933646697285</v>
+        <v>1.980602</v>
       </c>
       <c r="O7">
-        <v>0.00777572979890435</v>
+        <v>0.01082096921202439</v>
       </c>
       <c r="P7">
-        <v>0.00777572979890435</v>
+        <v>0.01082096921202439</v>
       </c>
       <c r="Q7">
-        <v>0.2311694769896841</v>
+        <v>1.738441715868</v>
       </c>
       <c r="R7">
-        <v>0.2311694769896841</v>
+        <v>15.645975442812</v>
       </c>
       <c r="S7">
-        <v>0.0001490133730999283</v>
+        <v>0.001065365067763843</v>
       </c>
       <c r="T7">
-        <v>0.0001490133730999283</v>
+        <v>0.001065365067763842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5101343333333334</v>
+      </c>
+      <c r="H8">
+        <v>1.530403</v>
+      </c>
+      <c r="I8">
+        <v>0.01907359990996641</v>
+      </c>
+      <c r="J8">
+        <v>0.0190735999099664</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.106217</v>
+      </c>
+      <c r="N8">
+        <v>3.318651</v>
+      </c>
+      <c r="O8">
+        <v>0.01813136626967656</v>
+      </c>
+      <c r="P8">
+        <v>0.01813136626967656</v>
+      </c>
+      <c r="Q8">
+        <v>0.564319271817</v>
+      </c>
+      <c r="R8">
+        <v>5.078873446353</v>
+      </c>
+      <c r="S8">
+        <v>0.0003458304260488708</v>
+      </c>
+      <c r="T8">
+        <v>0.0003458304260488707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5101343333333334</v>
+      </c>
+      <c r="H9">
+        <v>1.530403</v>
+      </c>
+      <c r="I9">
+        <v>0.01907359990996641</v>
+      </c>
+      <c r="J9">
+        <v>0.0190735999099664</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>59.24481466666666</v>
+      </c>
+      <c r="N9">
+        <v>177.734444</v>
+      </c>
+      <c r="O9">
+        <v>0.971047664518299</v>
+      </c>
+      <c r="P9">
+        <v>0.971047664518299</v>
+      </c>
+      <c r="Q9">
+        <v>30.22281403343689</v>
+      </c>
+      <c r="R9">
+        <v>272.005326300932</v>
+      </c>
+      <c r="S9">
+        <v>0.01852137464652932</v>
+      </c>
+      <c r="T9">
+        <v>0.01852137464652931</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5101343333333334</v>
+      </c>
+      <c r="H10">
+        <v>1.530403</v>
+      </c>
+      <c r="I10">
+        <v>0.01907359990996641</v>
+      </c>
+      <c r="J10">
+        <v>0.0190735999099664</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.6602006666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.980602</v>
+      </c>
+      <c r="O10">
+        <v>0.01082096921202439</v>
+      </c>
+      <c r="P10">
+        <v>0.01082096921202439</v>
+      </c>
+      <c r="Q10">
+        <v>0.3367910269562222</v>
+      </c>
+      <c r="R10">
+        <v>3.031119242606</v>
+      </c>
+      <c r="S10">
+        <v>0.0002063948373882176</v>
+      </c>
+      <c r="T10">
+        <v>0.0002063948373882175</v>
       </c>
     </row>
   </sheetData>
